--- a/assets/excel/2023_4-1-5.xlsx
+++ b/assets/excel/2023_4-1-5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D683E0-9DFB-4DDB-B850-8F1F06338C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F6B105-F205-4437-9734-6839BCE9CE9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11208" xr2:uid="{375826A2-DDEF-4337-AB99-31AC23B6D8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11205" xr2:uid="{375826A2-DDEF-4337-AB99-31AC23B6D8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +30,6 @@
     <t>Migration und Teilhabe - Integrationsmonitoring Niedersachsen 2023</t>
   </si>
   <si>
-    <t>Indikator 4.1.6: Frühe Schulabgänger/-innen und Personen mit niedrigem Bildungsstand nach Migrationsstatus und Geschlecht</t>
-  </si>
-  <si>
-    <t>Tabelle 4.1.6: Frühe Schulabgänger/-innen und Personen mit niedrigem Bildungsstand nach Migrationsstatus und Geschlecht</t>
-  </si>
-  <si>
     <t>Jahr</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>36,8</t>
+  </si>
+  <si>
+    <t>Indikator 4.1.5: Frühe Schulabgänger/-innen und Personen mit niedrigem Bildungsstand nach Migrationsstatus und Geschlecht</t>
+  </si>
+  <si>
+    <t>Tabelle 4.1.5: Frühe Schulabgänger/-innen und Personen mit niedrigem Bildungsstand nach Migrationsstatus und Geschlecht</t>
   </si>
 </sst>
 </file>
@@ -412,42 +412,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +465,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -808,20 +808,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC03DE53-1D32-4CE5-AB47-73FD33203A9E}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -833,727 +835,727 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="6" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="2:10" s="4" customFormat="1" ht="41.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" s="7" customFormat="1" ht="31.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12" t="s">
+    <row r="10" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B10" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>623</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4279</v>
+      </c>
+      <c r="G10" s="4">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4">
+        <v>821</v>
+      </c>
+      <c r="I10" s="10">
         <v>13</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="J10" s="4">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>317</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2143</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4">
+        <v>410</v>
+      </c>
+      <c r="I11" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B12" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>305</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2136</v>
+      </c>
+      <c r="G12" s="4">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4">
+        <v>411</v>
+      </c>
+      <c r="I12" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="J12" s="4">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="E13" s="4">
+        <v>435</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3196</v>
+      </c>
+      <c r="G13" s="4">
+        <v>41</v>
+      </c>
+      <c r="H13" s="4">
+        <v>420</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B14" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>219</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1593</v>
+      </c>
+      <c r="G14" s="4">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4">
+        <v>199</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4">
+        <v>216</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1603</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>221</v>
+      </c>
+      <c r="I15" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J15" s="4">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="4" customFormat="1" ht="8.25">
+      <c r="B16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B10" s="17">
+      <c r="E16" s="4">
+        <v>188</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1083</v>
+      </c>
+      <c r="G16" s="4">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4">
+        <v>401</v>
+      </c>
+      <c r="I16" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B17" s="9">
         <v>2022</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E17" s="4">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4">
+        <v>550</v>
+      </c>
+      <c r="G17" s="4">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4">
+        <v>211</v>
+      </c>
+      <c r="I17" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B18" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
-        <v>623</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4279</v>
-      </c>
-      <c r="G10" s="7">
-        <v>81</v>
-      </c>
-      <c r="H10" s="7">
-        <v>821</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="E18" s="4">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4">
+        <v>533</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4">
+        <v>190</v>
+      </c>
+      <c r="I18" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B19" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="7">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B11" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>618</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4254</v>
+      </c>
+      <c r="G19" s="4">
+        <v>79</v>
+      </c>
+      <c r="H19" s="4">
+        <v>815</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B20" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E20" s="4">
+        <v>318</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2141</v>
+      </c>
+      <c r="G20" s="4">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4">
+        <v>404</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B21" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4">
+        <v>300</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2113</v>
+      </c>
+      <c r="G21" s="4">
+        <v>34</v>
+      </c>
+      <c r="H21" s="4">
+        <v>411</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B22" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7">
-        <v>317</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2143</v>
-      </c>
-      <c r="G11" s="7">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>410</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="J11" s="7">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B12" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4">
+        <v>434</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3215</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41</v>
+      </c>
+      <c r="H22" s="4">
+        <v>422</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B23" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E23" s="4">
+        <v>217</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1607</v>
+      </c>
+      <c r="G23" s="4">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4">
+        <v>197</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B24" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4">
+        <v>216</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1608</v>
+      </c>
+      <c r="G24" s="4">
         <v>18</v>
       </c>
-      <c r="E12" s="7">
-        <v>305</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2136</v>
-      </c>
-      <c r="G12" s="7">
-        <v>35</v>
-      </c>
-      <c r="H12" s="7">
-        <v>411</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11.6</v>
-      </c>
-      <c r="J12" s="7">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B13" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="H24" s="4">
+        <v>225</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B25" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4">
+        <v>184</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G25" s="4">
+        <v>38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>392</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B26" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
+        <v>101</v>
+      </c>
+      <c r="F26" s="4">
+        <v>534</v>
+      </c>
+      <c r="G26" s="4">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4">
+        <v>207</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="4" customFormat="1" ht="8.25">
+      <c r="B27" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7">
-        <v>435</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3196</v>
-      </c>
-      <c r="G13" s="7">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>420</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="J13" s="7">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B14" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="7">
-        <v>219</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1593</v>
-      </c>
-      <c r="G14" s="7">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>199</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J14" s="7">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B15" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7">
-        <v>216</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1603</v>
-      </c>
-      <c r="G15" s="7">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7">
-        <v>221</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J15" s="7">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="7" customFormat="1" ht="7.8">
-      <c r="B16" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7">
-        <v>188</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1083</v>
-      </c>
-      <c r="G16" s="7">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>401</v>
-      </c>
-      <c r="I16" s="7">
-        <v>21.2</v>
-      </c>
-      <c r="J16" s="18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B17" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="7">
-        <v>98</v>
-      </c>
-      <c r="F17" s="7">
-        <v>550</v>
-      </c>
-      <c r="G17" s="7">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>211</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24.7</v>
-      </c>
-      <c r="J17" s="7">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B18" s="17">
-        <v>2022</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7">
-        <v>90</v>
-      </c>
-      <c r="F18" s="7">
-        <v>533</v>
-      </c>
-      <c r="G18" s="7">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J18" s="7">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B19" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="E27" s="4">
+        <v>83</v>
+      </c>
+      <c r="F27" s="4">
+        <v>505</v>
+      </c>
+      <c r="G27" s="4">
         <v>15</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7">
-        <v>618</v>
-      </c>
-      <c r="F19" s="7">
-        <v>4254</v>
-      </c>
-      <c r="G19" s="7">
-        <v>79</v>
-      </c>
-      <c r="H19" s="7">
-        <v>815</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B20" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7">
-        <v>318</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2141</v>
-      </c>
-      <c r="G20" s="7">
-        <v>46</v>
-      </c>
-      <c r="H20" s="7">
-        <v>404</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B21" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7">
-        <v>300</v>
-      </c>
-      <c r="F21" s="7">
-        <v>2113</v>
-      </c>
-      <c r="G21" s="7">
-        <v>34</v>
-      </c>
-      <c r="H21" s="7">
-        <v>411</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B22" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7">
-        <v>434</v>
-      </c>
-      <c r="F22" s="7">
-        <v>3215</v>
-      </c>
-      <c r="G22" s="7">
-        <v>41</v>
-      </c>
-      <c r="H22" s="7">
-        <v>422</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B23" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="7">
-        <v>217</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1607</v>
-      </c>
-      <c r="G23" s="7">
-        <v>23</v>
-      </c>
-      <c r="H23" s="7">
-        <v>197</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B24" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7">
-        <v>216</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1608</v>
-      </c>
-      <c r="G24" s="7">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7">
-        <v>225</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B25" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="7">
-        <v>184</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1039</v>
-      </c>
-      <c r="G25" s="7">
-        <v>38</v>
-      </c>
-      <c r="H25" s="7">
-        <v>392</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B26" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="7">
-        <v>101</v>
-      </c>
-      <c r="F26" s="7">
-        <v>534</v>
-      </c>
-      <c r="G26" s="7">
-        <v>23</v>
-      </c>
-      <c r="H26" s="7">
-        <v>207</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="H27" s="4">
+        <v>186</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J27" s="11" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="7.8">
-      <c r="B27" s="17">
-        <v>2021</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7">
-        <v>83</v>
-      </c>
-      <c r="F27" s="7">
-        <v>505</v>
-      </c>
-      <c r="G27" s="7">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7">
-        <v>186</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="8.25" customHeight="1"/>
     <row r="29" spans="2:12" ht="8.25" customHeight="1">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" s="25" customFormat="1" ht="8.25" customHeight="1">
-      <c r="B30" s="22" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" s="17" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="2:12" s="17" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="2:12" s="17" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="2:12" s="25" customFormat="1" ht="8.25" customHeight="1">
-      <c r="B31" s="22" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:13" s="22" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="1:13" s="22" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="2:12" s="25" customFormat="1" ht="8.25" customHeight="1">
-      <c r="B32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:13" s="30" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-    </row>
-    <row r="34" spans="1:13" s="30" customFormat="1" ht="8.25" customHeight="1">
-      <c r="B34" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:13" ht="8.25" customHeight="1"/>
     <row r="36" spans="1:13" ht="8.25" customHeight="1">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:13" ht="8.25" customHeight="1">
+      <c r="B37" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="8.25" customHeight="1">
+      <c r="B38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:13" ht="8.25" customHeight="1">
-      <c r="B37" s="31" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" ht="8.25" customHeight="1">
+      <c r="B39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:13" ht="8.25" customHeight="1">
-      <c r="B38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="1:13" ht="8.25" customHeight="1">
-      <c r="B39" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
